--- a/01_electrical/03_motor_control/02_test_can/test_can.xlsx
+++ b/01_electrical/03_motor_control/02_test_can/test_can.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\gitee\robowalker2023 train\2023_test_can\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Organization\1_RoboWalker\Admin\train\main\01_electrical\03_motor_control\02_test_can\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3DD78A-FD6C-4EDC-918C-86D799033E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A60FCC-9DB9-451B-A0BC-B49A62AF0892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{440ED87A-7A11-465C-AD38-6898698AFA1E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{48FA396E-0085-4724-8604-FE1AF03104C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>分段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,34 +99,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标志帧起始, 必须为显性电平0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留位, 必须为显性电平0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准帧数据格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程发送请求, 数据帧中是显性电平0, 遥控帧中是隐性电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展帧格式标记, 标准数据帧中是显性电平0, 扩展帧中是隐性电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DLC, Data Length Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识CAN ID, 同时用于仲裁, 显性电平的设备继续发, 隐性电平的设备闭嘴. 换句话说ID大的优先级低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CRC界定符, 标识CRC段结束, 必须为隐性电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACK, ACKnowledge</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,51 +139,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该位由接收设备控制电平, 如果正确接收则为显性电平0, 否则为隐性电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACK界定符, 标识ACK段结束, 必须为隐性电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EOF, End Of Frame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标志帧结束, 必须为隐性电平1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据长度的字节数, CAN协议中数据长度为0~8字节, 但接收方如果接收到DLC为9以上的数据并不认为出错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展数据帧格式, 相比标准数据帧, 仅在仲裁段和控制段不同</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SRR, Substitute Remote Request</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>代理远程请求, 必须为隐性电平1. 换句话说扩展帧优先级永远比标准帧低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>r1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>标识CAN ID前11位, 同时用于仲裁, 显性电平的设备继续发, 隐性电平的设备闭嘴. 换句话说ID大的优先级低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标识CAN ID后18位, 同时用于仲裁, 显性电平的设备继续发, 隐性电平的设备闭嘴. 换句话说ID大的优先级低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遥控帧格式, 相比数据帧, 没有数据段, 仅在仲裁段RTR位电平不同</t>
+    <t>标准数据帧格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志帧起始
+必须为显性电平0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控帧格式标记
+必须为显性电平0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展帧格式标记
+必须为显性电平0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留位
+必须为显性电平0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据长度的字节数, CAN协议中数据长度为0~8字节
+但接收方如果接收到DLC为9以上的数据并不认为出错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC界定符, 标识CRC段结束
+必须为隐性电平1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该位由接收设备控制电平
+如果正确接收则为显性电平0, 否则为隐性电平1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACK界定符, 标识ACK段结束
+必须为隐性电平1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志帧结束
+必须为隐性电平1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控帧格式标记
+必须为隐性电平1
+换句话说遥控帧优先级永远比数据帧低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥控帧格式标记副本
+必须为隐性电平1
+帧格式升级后的历史遗留问题
+亦可理解为非标准数据帧标志位, 换句话说标准数据帧优先级最高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展帧格式标记
+必须为隐性电平1
+换句话说扩展帧优先级永远比标准帧低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识CAN ID后18位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识CAN ID前11位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标识CAN ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准遥控帧格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比标准数据帧, 没有数据段, 仅在仲裁段RTR位电平不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展数据帧格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比标准数据帧, 仅在仲裁段和控制段不同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展遥控帧格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比扩展数据帧, 没有数据段, 仅在仲裁段不同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,62 +432,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,341 +809,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2015765D-CA3B-4168-82F9-F297C6291495}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" thickTop="1" thickBottom="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="2"/>
-    <col min="2" max="2" width="37.84375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="2"/>
-    <col min="4" max="4" width="74.69140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.23046875" style="2"/>
+    <col min="1" max="1" width="5.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.4375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.25" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="18"/>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18"/>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="15"/>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="18" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="15"/>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>11</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="19"/>
+      <c r="B24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="19"/>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="19"/>
+      <c r="B26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="1">
+        <v>18</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="15"/>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="5" customFormat="1" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="17"/>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="18"/>
+      <c r="B30" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C34" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="5" t="s">
+      <c r="D34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="63" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="19"/>
+      <c r="B35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="19"/>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="19"/>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="47.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="15"/>
+      <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="4">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5">
-        <v>11</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="5" t="s">
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5">
-        <v>18</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8"/>
-      <c r="B21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="4">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    </row>
+    <row r="40" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="1:4" ht="15.5" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:C26"/>
+  <mergeCells count="12">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:C16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>